--- a/Horror_Story.xlsx
+++ b/Horror_Story.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -439,6 +439,9 @@
       <c r="L1" t="str">
         <v>youtubeTag</v>
       </c>
+      <c r="M1" t="str">
+        <v>voiceOver</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -448,19 +451,19 @@
         <v>किराये का मकान hindi horror stories sacchi kahaniya</v>
       </c>
       <c r="C2">
-        <v>14743</v>
+        <v>17725</v>
       </c>
       <c r="D2" t="str">
-        <v>3 days ago</v>
+        <v>5 days ago</v>
       </c>
       <c r="E2" t="str">
         <v>54:01</v>
       </c>
       <c r="F2" t="str">
-        <v>refined</v>
+        <v>voiceovered</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-07-08T12:25:13.317Z</v>
+        <v>2025-07-10T04:57:55.506Z</v>
       </c>
       <c r="H2" t="str">
         <v>Mahesh Arya</v>
@@ -470,35 +473,44 @@
       </c>
       <c r="J2" t="str">
         <v>किराये का मकान: रूहों का बसेरा</v>
+      </c>
+      <c r="K2" t="str">
+        <v>haunted house, dark room, ghostly figure, eerie atmosphere, old furniture, Rajasthan village, night scene, paranormal activity, family scared, Indian horror</v>
+      </c>
+      <c r="L2" t="str">
+        <v>किराये का मकान, हिंदी हॉरर स्टोरी, भूतिया कहानी, डरावनी कहानी, सच्ची कहानी, हॉरर स्टोरी, भूत प्रेत, राजस्थान हॉरर, पैरानॉर्मल एक्टिविटी, डरावनी रात, भूतिया घर, हिंदी ऑडियो ड्रामा, हॉरर स्टोरीज इन हिंदी, हिंदी भूतिया कहानियाँ, डरावनी कहानियाँ</v>
+      </c>
+      <c r="M2" t="str">
+        <v>kiraaye-kaa-mkaan-hindi-horror-stories-sacchi-kahaniya-by-mahesh-arya.mp3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://youtube.com/watch?v=ijmP7azqzuc</v>
+        <v>https://youtube.com/watch?v=1sA7JjuUuIc</v>
       </c>
       <c r="B3" t="str">
-        <v>Baarish Ki Wo Raat : Mumbai Chapter | सच्ची कहानी | Horror Stories in Hindi | Khooni Monday E303 🔥🔥🔥</v>
+        <v>कब्र जिन्न और भयानक मायाजाल,Horror Story,Real Horror Story,Hindi Stories,Chachakefacts</v>
       </c>
       <c r="C3">
-        <v>943833</v>
+        <v>19508</v>
       </c>
       <c r="D3" t="str">
-        <v>7 days ago</v>
+        <v>21 hours ago</v>
       </c>
       <c r="E3" t="str">
-        <v>10:13</v>
+        <v>22:45</v>
       </c>
       <c r="F3" t="str">
-        <v>Story Fetched</v>
+        <v>fetched</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-07-08T12:25:13.317Z</v>
+        <v>2025-07-10T04:57:55.506Z</v>
       </c>
       <c r="H3" t="str">
-        <v>Khooni Monday</v>
+        <v>Chacha Ke Facts</v>
       </c>
       <c r="I3" t="str">
-        <v>baarish-ki-wo-raat-mumbai-chapter-sccii-khaanii-horror-stories-in-hindi-khooni-monday-e303-by-khooni-monday</v>
+        <v>kbr-jinn-aur-bhyaank-maayaajaal-horror-story-real-horror-story-hindi-stories-chachakefacts-by-chacha-ke-facts</v>
       </c>
       <c r="J3" t="str">
         <v/>
@@ -512,31 +524,31 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://youtube.com/watch?v=klMbLr2GoDM</v>
+        <v>https://youtube.com/watch?v=_z_U2IcjfIU</v>
       </c>
       <c r="B4" t="str">
-        <v>MOHINI 2 Horror Story | Scary Pumpkin | Hindi Horror Stories | Real Horror Story</v>
+        <v>Shraapit Baarish | Real Horror Story | सच्ची कहानी | Horror Stories in Hindi | Scary Town Hindi</v>
       </c>
       <c r="C4">
-        <v>449318</v>
+        <v>60901</v>
       </c>
       <c r="D4" t="str">
-        <v>3 days ago</v>
+        <v>1 day ago</v>
       </c>
       <c r="E4" t="str">
-        <v>24:23</v>
+        <v>22:20</v>
       </c>
       <c r="F4" t="str">
-        <v>Story Fetched</v>
+        <v>fetched</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-07-08T12:25:13.317Z</v>
+        <v>2025-07-10T04:57:55.506Z</v>
       </c>
       <c r="H4" t="str">
-        <v>Scary Pumpkin</v>
+        <v>Scary Town Hindi</v>
       </c>
       <c r="I4" t="str">
-        <v>mohini-2-horror-story-scary-pumpkin-hindi-horror-stories-real-horror-story-by-scary-pumpkin</v>
+        <v>shraapit-baarish-real-horror-story-sccii-khaanii-horror-stories-in-hindi-scary-town-hindi-by-scary-town-hindi</v>
       </c>
       <c r="J4" t="str">
         <v/>
@@ -550,31 +562,31 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://youtube.com/watch?v=zuTaBgMvJ2c</v>
+        <v>https://youtube.com/watch?v=DxP7fC0CnAw</v>
       </c>
       <c r="B5" t="str">
-        <v>सील बंद कमरा खुला कैसे? | Locked Room Mystery Hindi | Sealed Room Horror Story</v>
+        <v>भूत घर- एक खौफ्फ्नाक दिल दहला देने वाली कहानी -Hindi Horror Stories Ep. 409</v>
       </c>
       <c r="C5">
-        <v>562</v>
+        <v>25320</v>
       </c>
       <c r="D5" t="str">
-        <v>1 day ago</v>
+        <v>7 days ago</v>
       </c>
       <c r="E5" t="str">
-        <v>0:45</v>
+        <v>32:29</v>
       </c>
       <c r="F5" t="str">
-        <v>Story Fetched</v>
+        <v>fetched</v>
       </c>
       <c r="G5" t="str">
-        <v>2025-07-08T12:25:13.317Z</v>
+        <v>2025-07-10T04:57:55.506Z</v>
       </c>
       <c r="H5" t="str">
-        <v>Horror story</v>
+        <v>Hindi Horror Stories</v>
       </c>
       <c r="I5" t="str">
-        <v>siil-bnd-kmraa-khulaa-kaise-locked-room-mystery-hindi-sealed-room-horror-story-by-horror-story</v>
+        <v>bhuut-ghr--ek-khauphphnaak-dil-dhlaa-dene-vaalii-khaanii--hindi-horror-stories-ep.-409-by-hindi-horror-stories</v>
       </c>
       <c r="J5" t="str">
         <v/>
@@ -588,31 +600,31 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://youtube.com/watch?v=IY1cuxkmn5Q</v>
+        <v>https://youtube.com/watch?v=TupB-hWykvg</v>
       </c>
       <c r="B6" t="str">
-        <v>Horror stories of villages | Hindi Horror Stories by Horror Podcast</v>
+        <v>भारत की भूतिया जगहों की 5 कहानियां 😱😱 | Real Horror Story of Indian Haunted Places | Horror Story</v>
       </c>
       <c r="C6">
-        <v>45074</v>
+        <v>9282</v>
       </c>
       <c r="D6" t="str">
-        <v>1 day ago</v>
+        <v>4 days ago</v>
       </c>
       <c r="E6" t="str">
-        <v>43:39</v>
+        <v>1:36:28</v>
       </c>
       <c r="F6" t="str">
-        <v>Story Fetched</v>
+        <v>fetched</v>
       </c>
       <c r="G6" t="str">
-        <v>2025-07-08T12:25:13.317Z</v>
+        <v>2025-07-10T04:57:55.506Z</v>
       </c>
       <c r="H6" t="str">
-        <v>HORROR PODCAST - Hindi Horror Stories</v>
+        <v>PuneetSway</v>
       </c>
       <c r="I6" t="str">
-        <v>horror-stories-of-villages-hindi-horror-stories-by-horror-podcast-by-horror-podcast---hindi-horror-stories</v>
+        <v>bhaart-kii-bhuutiyaa-jghon-kii-5-khaaniyaan-real-horror-story-of-indian-haunted-places-horror-story-by-puneetsway</v>
       </c>
       <c r="J6" t="str">
         <v/>
@@ -626,31 +638,31 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://youtube.com/watch?v=_z_U2IcjfIU</v>
+        <v>https://youtube.com/watch?v=8ZsAzNRwC2s</v>
       </c>
       <c r="B7" t="str">
-        <v>Shraapit Baarish | Real Horror Story | सच्ची कहानी | Horror Stories in Hindi | Scary Town Hindi</v>
+        <v>मौत का राज़ किताबों में था | Detective Horror Storries | Hindi Horror Story EP 546</v>
       </c>
       <c r="C7">
-        <v>16038</v>
+        <v>5557</v>
       </c>
       <c r="D7" t="str">
-        <v>5 hours ago</v>
+        <v>14 hours ago</v>
       </c>
       <c r="E7" t="str">
-        <v>22:20</v>
+        <v>53:13</v>
       </c>
       <c r="F7" t="str">
-        <v>Story Fetched</v>
+        <v>fetched</v>
       </c>
       <c r="G7" t="str">
-        <v>2025-07-08T12:25:13.317Z</v>
+        <v>2025-07-10T04:57:55.506Z</v>
       </c>
       <c r="H7" t="str">
-        <v>Scary Town Hindi</v>
+        <v>Darr Ek Ehsaas</v>
       </c>
       <c r="I7" t="str">
-        <v>shraapit-baarish-real-horror-story-sccii-khaanii-horror-stories-in-hindi-scary-town-hindi-by-scary-town-hindi</v>
+        <v>maut-kaa-raaj-kitaabon-men-thaa-detective-horror-storries-hindi-horror-story-ep-546-by-darr-ek-ehsaas</v>
       </c>
       <c r="J7" t="str">
         <v/>
@@ -659,12 +671,50 @@
         <v/>
       </c>
       <c r="L7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://youtube.com/watch?v=klMbLr2GoDM</v>
+      </c>
+      <c r="B8" t="str">
+        <v>MOHINI 2 Horror Story | Scary Pumpkin | Hindi Horror Stories | Real Horror Story</v>
+      </c>
+      <c r="C8">
+        <v>543053</v>
+      </c>
+      <c r="D8" t="str">
+        <v>4 days ago</v>
+      </c>
+      <c r="E8" t="str">
+        <v>24:23</v>
+      </c>
+      <c r="F8" t="str">
+        <v>fetched</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2025-07-10T04:57:55.506Z</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Scary Pumpkin</v>
+      </c>
+      <c r="I8" t="str">
+        <v>mohini-2-horror-story-scary-pumpkin-hindi-horror-stories-real-horror-story-by-scary-pumpkin</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M8"/>
   </ignoredErrors>
 </worksheet>
 </file>